--- a/cypress/fixtures/excelData.xlsx
+++ b/cypress/fixtures/excelData.xlsx
@@ -517,7 +517,7 @@
         <v>111</v>
       </c>
       <c r="S2" t="str">
-        <v>Francis</v>
+        <v>Francis Sanjon</v>
       </c>
     </row>
     <row r="3">
@@ -576,7 +576,7 @@
         <v>222</v>
       </c>
       <c r="S3" t="str">
-        <v>Francis</v>
+        <v>Francis Sanjon</v>
       </c>
     </row>
     <row r="4">
@@ -635,7 +635,7 @@
         <v>333</v>
       </c>
       <c r="S4" t="str">
-        <v>Francis</v>
+        <v>Francis Sanjon</v>
       </c>
     </row>
     <row r="5">
@@ -694,7 +694,7 @@
         <v>333</v>
       </c>
       <c r="S5" t="str">
-        <v>Francis</v>
+        <v>Francis Sanjon</v>
       </c>
     </row>
     <row r="6">
@@ -753,7 +753,7 @@
         <v>333</v>
       </c>
       <c r="S6" t="str">
-        <v>Francis</v>
+        <v>Francis Sanjon</v>
       </c>
     </row>
     <row r="7">
@@ -812,7 +812,7 @@
         <v>333</v>
       </c>
       <c r="S7" t="str">
-        <v>Francis</v>
+        <v>Francis Sanjon</v>
       </c>
     </row>
     <row r="8">

--- a/cypress/fixtures/excelData.xlsx
+++ b/cypress/fixtures/excelData.xlsx
@@ -870,9 +870,6 @@
       <c r="R8">
         <v>333</v>
       </c>
-      <c r="S8" t="str">
-        <v>Francis</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -929,9 +926,6 @@
       <c r="R9">
         <v>333</v>
       </c>
-      <c r="S9" t="str">
-        <v>Francis</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -988,9 +982,6 @@
       <c r="R10">
         <v>333</v>
       </c>
-      <c r="S10" t="str">
-        <v>Francis</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -1047,9 +1038,6 @@
       <c r="R11">
         <v>333</v>
       </c>
-      <c r="S11" t="str">
-        <v>Francis</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -1106,9 +1094,6 @@
       <c r="R12">
         <v>333</v>
       </c>
-      <c r="S12" t="str">
-        <v>Francis</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -1165,9 +1150,6 @@
       <c r="R13">
         <v>333</v>
       </c>
-      <c r="S13" t="str">
-        <v>Francis</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -1224,9 +1206,6 @@
       <c r="R14">
         <v>333</v>
       </c>
-      <c r="S14" t="str">
-        <v>Francis</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -1283,9 +1262,6 @@
       <c r="R15">
         <v>333</v>
       </c>
-      <c r="S15" t="str">
-        <v>Francis</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -1342,9 +1318,6 @@
       <c r="R16">
         <v>333</v>
       </c>
-      <c r="S16" t="str">
-        <v>Francis</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -1401,9 +1374,6 @@
       <c r="R17">
         <v>333</v>
       </c>
-      <c r="S17" t="str">
-        <v>Francis</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -1460,9 +1430,6 @@
       <c r="R18">
         <v>333</v>
       </c>
-      <c r="S18" t="str">
-        <v>Francis</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -1519,9 +1486,6 @@
       <c r="R19">
         <v>333</v>
       </c>
-      <c r="S19" t="str">
-        <v>Francis</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -1577,9 +1541,6 @@
       </c>
       <c r="R20">
         <v>333</v>
-      </c>
-      <c r="S20" t="str">
-        <v>Francis</v>
       </c>
     </row>
     <row r="21">
